--- a/pred_ohlcv/54_21/2019-10-17 CHR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-17 CHR ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>200342.77734286</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>173167.08224286</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>216592.19444286</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>46945.22524286</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>145134.18094286</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>140842.18094286</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>135863.37734286</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>134914.47534286</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>134924.47534286</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>134724.47534286</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>134524.47534286</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>127618.36714286</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>127714.16464286</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>108898.05824286</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>108918.05824286</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>108907.80824286</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-122588.10003784</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-122588.10003784</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-122578.10003784</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-122578.10003784</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-122612.47923784</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-17 CHR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-17 CHR ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>226378.6397</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -548,7 +548,7 @@
         <v>173167.08224286</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>216592.19444286</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>46945.22524286</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>15944.11264286</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>145134.18094286</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>140842.18094286</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>135863.37734286</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>134914.47534286</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>134924.47534286</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>134724.47534286</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>134524.47534286</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>127618.36714286</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>127714.16464286</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>108898.05824286</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>108918.05824286</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>108907.80824286</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-122578.10003784</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-122578.10003784</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-122612.47923784</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
